--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Slit2</t>
+  </si>
+  <si>
+    <t>Gpc1</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Slit2</t>
-  </si>
-  <si>
-    <t>Gpc1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H2">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I2">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J2">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N2">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O2">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P2">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q2">
-        <v>0.06057991118749999</v>
+        <v>0.38777815318625</v>
       </c>
       <c r="R2">
-        <v>0.24231964475</v>
+        <v>1.551112612745</v>
       </c>
       <c r="S2">
-        <v>0.0006714268683580098</v>
+        <v>0.00387477701092637</v>
       </c>
       <c r="T2">
-        <v>0.0004751505480812165</v>
+        <v>0.002782490940408559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H3">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I3">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J3">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.596253</v>
       </c>
       <c r="O3">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P3">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q3">
-        <v>0.6129380195201666</v>
+        <v>1.100822641462833</v>
       </c>
       <c r="R3">
-        <v>3.677628117121</v>
+        <v>6.604935848777</v>
       </c>
       <c r="S3">
-        <v>0.006793391520007767</v>
+        <v>0.01099969719593443</v>
       </c>
       <c r="T3">
-        <v>0.007211247842871955</v>
+        <v>0.01184838161342645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H4">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I4">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J4">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N4">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O4">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P4">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q4">
-        <v>0.215263998176</v>
+        <v>0.7135649113356666</v>
       </c>
       <c r="R4">
-        <v>1.291583989056</v>
+        <v>4.281389468013999</v>
       </c>
       <c r="S4">
-        <v>0.002385840938561148</v>
+        <v>0.007130120383339824</v>
       </c>
       <c r="T4">
-        <v>0.002532592192127182</v>
+        <v>0.007680246623762085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H5">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I5">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J5">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N5">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O5">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P5">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q5">
-        <v>5.676903510701499</v>
+        <v>8.439124856033748</v>
       </c>
       <c r="R5">
-        <v>22.707614042806</v>
+        <v>33.75649942413499</v>
       </c>
       <c r="S5">
-        <v>0.06291896887011922</v>
+        <v>0.08432586187698714</v>
       </c>
       <c r="T5">
-        <v>0.04452604438731128</v>
+        <v>0.06055469670982799</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H6">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I6">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J6">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N6">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O6">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P6">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q6">
-        <v>0.07309469936316666</v>
+        <v>0.6626200905886666</v>
       </c>
       <c r="R6">
-        <v>0.438568196179</v>
+        <v>3.975720543532</v>
       </c>
       <c r="S6">
-        <v>0.0008101323380135272</v>
+        <v>0.006621066898417406</v>
       </c>
       <c r="T6">
-        <v>0.0008599629592575258</v>
+        <v>0.007131916988539515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H7">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I7">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J7">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N7">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O7">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P7">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q7">
-        <v>0.1127742314938333</v>
+        <v>0.7467378936166668</v>
       </c>
       <c r="R7">
-        <v>0.676645388963</v>
+        <v>4.4804273617</v>
       </c>
       <c r="S7">
-        <v>0.001249913504313781</v>
+        <v>0.007461593180531033</v>
       </c>
       <c r="T7">
-        <v>0.00132679472914421</v>
+        <v>0.00803729428840534</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H8">
         <v>2.524493</v>
       </c>
       <c r="I8">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J8">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N8">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O8">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P8">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q8">
-        <v>0.4046551904583333</v>
+        <v>1.442244954644167</v>
       </c>
       <c r="R8">
-        <v>2.427931142749999</v>
+        <v>8.653469727865001</v>
       </c>
       <c r="S8">
-        <v>0.004484925150407191</v>
+        <v>0.01441127497374939</v>
       </c>
       <c r="T8">
-        <v>0.004760789470334995</v>
+        <v>0.01552318053701656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H9">
         <v>2.524493</v>
       </c>
       <c r="I9">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J9">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>14.596253</v>
       </c>
       <c r="O9">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P9">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q9">
         <v>4.094237613858778</v>
       </c>
       <c r="R9">
-        <v>36.84813852472899</v>
+        <v>36.848138524729</v>
       </c>
       <c r="S9">
-        <v>0.04537776773687301</v>
+        <v>0.04091065381868075</v>
       </c>
       <c r="T9">
-        <v>0.07225337934883869</v>
+        <v>0.06610068848227058</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H10">
         <v>2.524493</v>
       </c>
       <c r="I10">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J10">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N10">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O10">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P10">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q10">
-        <v>1.437897356949333</v>
+        <v>2.653928244097555</v>
       </c>
       <c r="R10">
-        <v>12.941076212544</v>
+        <v>23.885354196878</v>
       </c>
       <c r="S10">
-        <v>0.0159366842980113</v>
+        <v>0.02651871969677023</v>
       </c>
       <c r="T10">
-        <v>0.02537540636251315</v>
+        <v>0.04284716732697254</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H11">
         <v>2.524493</v>
       </c>
       <c r="I11">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J11">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N11">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O11">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P11">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q11">
-        <v>37.91997093271566</v>
+        <v>31.38723815464916</v>
       </c>
       <c r="R11">
-        <v>227.5198255962939</v>
+        <v>188.323428927895</v>
       </c>
       <c r="S11">
-        <v>0.4202793769831991</v>
+        <v>0.3136291919459737</v>
       </c>
       <c r="T11">
-        <v>0.4461304404063257</v>
+        <v>0.337827331525083</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H12">
         <v>2.524493</v>
       </c>
       <c r="I12">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J12">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N12">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O12">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P12">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q12">
-        <v>0.4882501296634444</v>
+        <v>2.464451580484889</v>
       </c>
       <c r="R12">
-        <v>4.394251166970999</v>
+        <v>22.180064224364</v>
       </c>
       <c r="S12">
-        <v>0.005411435063360766</v>
+        <v>0.02462542113355602</v>
       </c>
       <c r="T12">
-        <v>0.008616432450397921</v>
+        <v>0.03978810258834429</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H13">
         <v>2.524493</v>
       </c>
       <c r="I13">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J13">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N13">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O13">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P13">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q13">
-        <v>0.7532972107318888</v>
+        <v>2.77730694898889</v>
       </c>
       <c r="R13">
-        <v>6.779674896586999</v>
+        <v>24.9957625409</v>
       </c>
       <c r="S13">
-        <v>0.00834903810900434</v>
+        <v>0.02775155080244935</v>
       </c>
       <c r="T13">
-        <v>0.01329387159777841</v>
+        <v>0.04483909307885425</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H14">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I14">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J14">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N14">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O14">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P14">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q14">
-        <v>0.2399746578125</v>
+        <v>0.02313197074166667</v>
       </c>
       <c r="R14">
-        <v>0.95989863125</v>
+        <v>0.13879182445</v>
       </c>
       <c r="S14">
-        <v>0.002659717220146377</v>
+        <v>0.0002311404799645365</v>
       </c>
       <c r="T14">
-        <v>0.001882209596384146</v>
+        <v>0.0002489741821204496</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H15">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I15">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J15">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>14.596253</v>
       </c>
       <c r="O15">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P15">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q15">
-        <v>2.428025868829167</v>
+        <v>0.06566692044111111</v>
       </c>
       <c r="R15">
-        <v>14.568155212975</v>
+        <v>0.59100228397</v>
       </c>
       <c r="S15">
-        <v>0.02691060078240237</v>
+        <v>0.0006561604144350502</v>
       </c>
       <c r="T15">
-        <v>0.02856585127928348</v>
+        <v>0.001060179955597871</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H16">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I16">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J16">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N16">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O16">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P16">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q16">
-        <v>0.8527233416000001</v>
+        <v>0.04256599428222221</v>
       </c>
       <c r="R16">
-        <v>5.116340049600001</v>
+        <v>0.38309394854</v>
       </c>
       <c r="S16">
-        <v>0.009451010270619266</v>
+        <v>0.0004253301397635987</v>
       </c>
       <c r="T16">
-        <v>0.01003233469265524</v>
+        <v>0.0006872198913085194</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H17">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I17">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J17">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N17">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O17">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P17">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q17">
-        <v>22.4878668639625</v>
+        <v>0.5034156453916666</v>
       </c>
       <c r="R17">
-        <v>89.95146745584999</v>
+        <v>3.020493872349999</v>
       </c>
       <c r="S17">
-        <v>0.2492403459917535</v>
+        <v>0.005030255968977721</v>
       </c>
       <c r="T17">
-        <v>0.1763806195178769</v>
+        <v>0.005418366639737409</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H18">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I18">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J18">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N18">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O18">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P18">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q18">
-        <v>0.2895493757541667</v>
+        <v>0.03952700383555555</v>
       </c>
       <c r="R18">
-        <v>1.737296254525</v>
+        <v>0.3557430345199999</v>
       </c>
       <c r="S18">
-        <v>0.003209169950677501</v>
+        <v>0.0003949637815187774</v>
       </c>
       <c r="T18">
-        <v>0.003406563542830543</v>
+        <v>0.0006381559678723846</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H19">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I19">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J19">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N19">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O19">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P19">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q19">
-        <v>0.4467315498208334</v>
+        <v>0.04454484855555556</v>
       </c>
       <c r="R19">
-        <v>2.680389298925</v>
+        <v>0.400903637</v>
       </c>
       <c r="S19">
-        <v>0.004951271132844005</v>
+        <v>0.0004451033502533673</v>
       </c>
       <c r="T19">
-        <v>0.005255820037905704</v>
+        <v>0.0007191681176231459</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H20">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I20">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J20">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N20">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O20">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P20">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q20">
-        <v>0.09931896074999999</v>
+        <v>1.3624033779825</v>
       </c>
       <c r="R20">
-        <v>0.5959137644999999</v>
+        <v>5.44961351193</v>
       </c>
       <c r="S20">
-        <v>0.001100784360322806</v>
+        <v>0.01361347782292292</v>
       </c>
       <c r="T20">
-        <v>0.001168492765427414</v>
+        <v>0.00977588609690852</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H21">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I21">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J21">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>14.596253</v>
       </c>
       <c r="O21">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P21">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q21">
-        <v>1.004893634038</v>
+        <v>3.867583753663</v>
       </c>
       <c r="R21">
-        <v>9.044042706342001</v>
+        <v>23.205502521978</v>
       </c>
       <c r="S21">
-        <v>0.01113756313783197</v>
+        <v>0.03864587134006982</v>
       </c>
       <c r="T21">
-        <v>0.01773393920753646</v>
+        <v>0.04162760331164091</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H22">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I22">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J22">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N22">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O22">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P22">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q22">
-        <v>0.352918915968</v>
+        <v>2.507008808065999</v>
       </c>
       <c r="R22">
-        <v>3.176270243712</v>
+        <v>15.042052848396</v>
       </c>
       <c r="S22">
-        <v>0.003911515185277983</v>
+        <v>0.02505066367423326</v>
       </c>
       <c r="T22">
-        <v>0.006228164244425406</v>
+        <v>0.02698345396195254</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H23">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I23">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J23">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N23">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O23">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P23">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q23">
-        <v>9.307114287701999</v>
+        <v>29.6496646770975</v>
       </c>
       <c r="R23">
-        <v>55.842685726212</v>
+        <v>118.59865870839</v>
       </c>
       <c r="S23">
-        <v>0.1031537761800361</v>
+        <v>0.2962669199605819</v>
       </c>
       <c r="T23">
-        <v>0.1094986861527939</v>
+        <v>0.2127503127040545</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H24">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I24">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J24">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N24">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O24">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P24">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q24">
-        <v>0.119836583362</v>
+        <v>2.328021427508</v>
       </c>
       <c r="R24">
-        <v>1.078529250258</v>
+        <v>13.968128565048</v>
       </c>
       <c r="S24">
-        <v>0.001328187848153755</v>
+        <v>0.02326217667017308</v>
       </c>
       <c r="T24">
-        <v>0.002114825502118983</v>
+        <v>0.02505697579102697</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H25">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I25">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J25">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N25">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O25">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P25">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q25">
-        <v>0.184889994914</v>
+        <v>2.6235573623</v>
       </c>
       <c r="R25">
-        <v>1.664009954226</v>
+        <v>15.7413441738</v>
       </c>
       <c r="S25">
-        <v>0.002049195976725867</v>
+        <v>0.02621524619362472</v>
       </c>
       <c r="T25">
-        <v>0.003262860683783187</v>
+        <v>0.02823789013999347</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H26">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I26">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J26">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N26">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O26">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P26">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q26">
-        <v>0.005041974375</v>
+        <v>0.004839489359166667</v>
       </c>
       <c r="R26">
-        <v>0.03025184625</v>
+        <v>0.029036936155</v>
       </c>
       <c r="S26">
-        <v>5.588184265357765E-05</v>
+        <v>4.835739703086167E-05</v>
       </c>
       <c r="T26">
-        <v>5.931909210656845E-05</v>
+        <v>5.208842422184067E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H27">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I27">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J27">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>14.596253</v>
       </c>
       <c r="O27">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P27">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q27">
-        <v>0.051013904235</v>
+        <v>0.01373831768477778</v>
       </c>
       <c r="R27">
-        <v>0.4591251381150001</v>
+        <v>0.123644859163</v>
       </c>
       <c r="S27">
-        <v>0.0005654037005304989</v>
+        <v>0.0001372767318024033</v>
       </c>
       <c r="T27">
-        <v>0.0009002718753499103</v>
+        <v>0.0002218025291150793</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H28">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I28">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J28">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N28">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O28">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P28">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q28">
-        <v>0.01791609696</v>
+        <v>0.008905323229555553</v>
       </c>
       <c r="R28">
-        <v>0.16124487264</v>
+        <v>0.08014790906599999</v>
       </c>
       <c r="S28">
-        <v>0.0001985699324949387</v>
+        <v>8.898423348820559E-05</v>
       </c>
       <c r="T28">
-        <v>0.0003161757260300786</v>
+        <v>0.0001437747517726468</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H29">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I29">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J29">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N29">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O29">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P29">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q29">
-        <v>0.472480092315</v>
+        <v>0.1053206700941667</v>
       </c>
       <c r="R29">
-        <v>2.83488055389</v>
+        <v>0.6319240205649999</v>
       </c>
       <c r="S29">
-        <v>0.005236650607867216</v>
+        <v>0.001052390672097068</v>
       </c>
       <c r="T29">
-        <v>0.005558752986433703</v>
+        <v>0.001133588140410363</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H30">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I30">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J30">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N30">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O30">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P30">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q30">
-        <v>0.006083561265000001</v>
+        <v>0.008269529500888887</v>
       </c>
       <c r="R30">
-        <v>0.05475205138500001</v>
+        <v>0.07442576550799999</v>
       </c>
       <c r="S30">
-        <v>6.742608908720006E-05</v>
+        <v>8.263122235726264E-05</v>
       </c>
       <c r="T30">
-        <v>0.0001073601244793575</v>
+        <v>0.0001335099828067911</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H31">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I31">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J31">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N31">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O31">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P31">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q31">
-        <v>0.009386028705</v>
+        <v>0.00931932358888889</v>
       </c>
       <c r="R31">
-        <v>0.08447425834500001</v>
+        <v>0.08387391230000001</v>
       </c>
       <c r="S31">
-        <v>0.0001040284103456542</v>
+        <v>9.312102938988082E-05</v>
       </c>
       <c r="T31">
-        <v>0.0001656406775966976</v>
+        <v>0.0001504587089253067</v>
       </c>
     </row>
   </sheetData>
